--- a/jmdrgg_0323/7.xlsx
+++ b/jmdrgg_0323/7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kill3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A97EC52-59F7-4E03-AB86-4AB5EDB96492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD199E-6878-418A-B748-F56775704B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2550" windowWidth="17280" windowHeight="11385" xr2:uid="{11A5390E-5931-4073-BB4B-C2F0422E0B4F}"/>
+    <workbookView xWindow="9675" yWindow="1425" windowWidth="17280" windowHeight="11385" xr2:uid="{11A5390E-5931-4073-BB4B-C2F0422E0B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -71,6 +71,33 @@
   <si>
     <t>running_after</t>
   </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>P_USER = 60</t>
+  </si>
+  <si>
+    <t>p_pri = P_USER + p_cpu / 4 + 2 * p_nice;</t>
+  </si>
+  <si>
+    <t>Nem Round Robinos</t>
+  </si>
+  <si>
+    <t>Round Robinos</t>
+  </si>
+  <si>
+    <t>KF = 2*2/ (2*2+1)</t>
+  </si>
+  <si>
+    <t>KF = 2 / 3</t>
+  </si>
+  <si>
+    <t>D esetén a p_nice = 5;</t>
+  </si>
 </sst>
 </file>
 
@@ -85,12 +112,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82F682"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +144,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -116,6 +167,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF82F682"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,83 +480,2621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A126E2-7032-49EC-83A9-935D24C78B02}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="4">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C7" si="0">C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4">
+        <f>ROUND(60 + (C10 /4 +2*0), 0)</f>
+        <v>73</v>
+      </c>
+      <c r="C10" s="4">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>60</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" ref="B11:B12" si="1">ROUND(60 + (C11 /4 +2*0), 0)</f>
+        <v>73</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C12" s="3">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>199</v>
+      </c>
+      <c r="B14" s="3">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4">
+        <v>99</v>
+      </c>
+      <c r="F14" s="3">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>200</v>
+      </c>
+      <c r="B15" s="3">
+        <f>ROUND(60 + (C15 /4 ), 0)</f>
+        <v>66</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>73</v>
+      </c>
+      <c r="E15" s="4">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>60</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>201</v>
+      </c>
+      <c r="B16" s="3">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>73</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>60</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>60</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>60</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>60</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>60</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>60</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>60</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>60</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4">
+        <v>60</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>60</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>60</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>60</v>
+      </c>
+      <c r="E31" s="4">
+        <v>9</v>
+      </c>
+      <c r="F31" s="3">
+        <v>60</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>60</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4">
+        <v>60</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <v>60</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>60</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4">
+        <v>60</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>60</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3">
+        <v>60</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4">
+        <v>60</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>60</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3">
+        <v>60</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3">
+        <v>60</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4">
+        <v>60</v>
+      </c>
+      <c r="G36" s="4">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3">
+        <v>60</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4">
+        <v>60</v>
+      </c>
+      <c r="G37" s="4">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3">
+        <v>60</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3">
+        <v>60</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3">
+        <v>60</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10</v>
+      </c>
+      <c r="H38" s="4">
+        <v>60</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3">
+        <v>60</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
+        <v>60</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3">
+        <v>60</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10</v>
+      </c>
+      <c r="H39" s="4">
+        <v>60</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
+        <v>60</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3">
+        <v>60</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4">
+        <v>60</v>
+      </c>
+      <c r="I41" s="4">
+        <v>9</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>60</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4">
+        <v>60</v>
+      </c>
+      <c r="I42" s="4">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>50</v>
+      </c>
+      <c r="B44" s="4">
+        <v>60</v>
+      </c>
+      <c r="C44" s="4">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3">
+        <v>60</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3">
+        <v>60</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <v>60</v>
+      </c>
+      <c r="I44" s="3">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>60</v>
+      </c>
+      <c r="B46" s="3">
+        <v>60</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20</v>
+      </c>
+      <c r="D46" s="4">
+        <v>60</v>
+      </c>
+      <c r="E46" s="4">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3">
+        <v>60</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3">
+        <v>60</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>70</v>
+      </c>
+      <c r="B48" s="3">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>60</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20</v>
+      </c>
+      <c r="F48" s="4">
+        <v>60</v>
+      </c>
+      <c r="G48" s="4">
+        <v>20</v>
+      </c>
+      <c r="H48" s="3">
+        <v>60</v>
+      </c>
+      <c r="I48" s="3">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>80</v>
+      </c>
+      <c r="B50" s="3">
+        <v>60</v>
+      </c>
+      <c r="C50" s="3">
+        <v>20</v>
+      </c>
+      <c r="D50" s="3">
+        <v>60</v>
+      </c>
+      <c r="E50" s="3">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3">
+        <v>60</v>
+      </c>
+      <c r="G50" s="3">
+        <v>20</v>
+      </c>
+      <c r="H50" s="4">
+        <v>60</v>
+      </c>
+      <c r="I50" s="4">
+        <v>20</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>90</v>
+      </c>
+      <c r="B52" s="4">
+        <v>60</v>
+      </c>
+      <c r="C52" s="4">
+        <v>30</v>
+      </c>
+      <c r="D52" s="3">
+        <v>60</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3">
+        <v>60</v>
+      </c>
+      <c r="G52" s="3">
+        <v>20</v>
+      </c>
+      <c r="H52" s="3">
+        <v>60</v>
+      </c>
+      <c r="I52" s="3">
+        <v>20</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>99</v>
+      </c>
+      <c r="B54" s="3">
+        <v>60</v>
+      </c>
+      <c r="C54" s="3">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4">
+        <v>60</v>
+      </c>
+      <c r="E54" s="4">
+        <v>29</v>
+      </c>
+      <c r="F54" s="3">
+        <v>60</v>
+      </c>
+      <c r="G54" s="3">
+        <v>20</v>
+      </c>
+      <c r="H54" s="3">
+        <v>60</v>
+      </c>
+      <c r="I54" s="3">
+        <v>20</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>100</v>
+      </c>
+      <c r="B55" s="3">
+        <v>66</v>
+      </c>
+      <c r="C55" s="3">
+        <v>24</v>
+      </c>
+      <c r="D55" s="4">
+        <v>66</v>
+      </c>
+      <c r="E55" s="4">
+        <v>24</v>
+      </c>
+      <c r="F55" s="3">
+        <v>64</v>
+      </c>
+      <c r="G55" s="3">
+        <v>16</v>
+      </c>
+      <c r="H55" s="3">
+        <v>78</v>
+      </c>
+      <c r="I55" s="3">
+        <v>16</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3">
+        <v>66</v>
+      </c>
+      <c r="C57" s="3">
+        <v>24</v>
+      </c>
+      <c r="D57" s="3">
+        <v>66</v>
+      </c>
+      <c r="E57" s="3">
+        <v>24</v>
+      </c>
+      <c r="F57" s="4">
+        <v>64</v>
+      </c>
+      <c r="G57" s="4">
+        <v>26</v>
+      </c>
+      <c r="H57" s="3">
+        <v>78</v>
+      </c>
+      <c r="I57" s="3">
+        <v>16</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>120</v>
+      </c>
+      <c r="B59" s="3">
+        <v>66</v>
+      </c>
+      <c r="C59" s="3">
+        <v>24</v>
+      </c>
+      <c r="D59" s="3">
+        <v>66</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24</v>
+      </c>
+      <c r="F59" s="4">
+        <v>64</v>
+      </c>
+      <c r="G59" s="4">
+        <v>36</v>
+      </c>
+      <c r="H59" s="3">
+        <v>78</v>
+      </c>
+      <c r="I59" s="3">
+        <v>16</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>130</v>
+      </c>
+      <c r="B61" s="3">
+        <v>66</v>
+      </c>
+      <c r="C61" s="3">
+        <v>24</v>
+      </c>
+      <c r="D61" s="3">
+        <v>66</v>
+      </c>
+      <c r="E61" s="3">
+        <v>24</v>
+      </c>
+      <c r="F61" s="4">
+        <v>64</v>
+      </c>
+      <c r="G61" s="4">
+        <v>46</v>
+      </c>
+      <c r="H61" s="3">
+        <v>78</v>
+      </c>
+      <c r="I61" s="3">
+        <v>16</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>140</v>
+      </c>
+      <c r="B63" s="3">
+        <v>66</v>
+      </c>
+      <c r="C63" s="3">
+        <v>24</v>
+      </c>
+      <c r="D63" s="3">
+        <v>66</v>
+      </c>
+      <c r="E63" s="3">
+        <v>24</v>
+      </c>
+      <c r="F63" s="4">
+        <v>64</v>
+      </c>
+      <c r="G63" s="4">
+        <v>56</v>
+      </c>
+      <c r="H63" s="3">
+        <v>78</v>
+      </c>
+      <c r="I63" s="3">
+        <v>16</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>150</v>
+      </c>
+      <c r="B65" s="3">
+        <v>66</v>
+      </c>
+      <c r="C65" s="3">
+        <v>24</v>
+      </c>
+      <c r="D65" s="3">
+        <v>66</v>
+      </c>
+      <c r="E65" s="3">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4">
+        <v>64</v>
+      </c>
+      <c r="G65" s="4">
+        <v>66</v>
+      </c>
+      <c r="H65" s="3">
+        <v>78</v>
+      </c>
+      <c r="I65" s="3">
+        <v>16</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>160</v>
+      </c>
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3">
+        <v>24</v>
+      </c>
+      <c r="D67" s="3">
+        <v>66</v>
+      </c>
+      <c r="E67" s="3">
+        <v>24</v>
+      </c>
+      <c r="F67" s="4">
+        <v>64</v>
+      </c>
+      <c r="G67" s="4">
+        <v>76</v>
+      </c>
+      <c r="H67" s="3">
+        <v>78</v>
+      </c>
+      <c r="I67" s="3">
+        <v>16</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>170</v>
+      </c>
+      <c r="B69" s="3">
+        <v>66</v>
+      </c>
+      <c r="C69" s="3">
+        <v>24</v>
+      </c>
+      <c r="D69" s="3">
+        <v>66</v>
+      </c>
+      <c r="E69" s="3">
+        <v>24</v>
+      </c>
+      <c r="F69" s="4">
+        <v>64</v>
+      </c>
+      <c r="G69" s="4">
+        <v>86</v>
+      </c>
+      <c r="H69" s="3">
+        <v>78</v>
+      </c>
+      <c r="I69" s="3">
+        <v>16</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>180</v>
+      </c>
+      <c r="B71" s="3">
+        <v>66</v>
+      </c>
+      <c r="C71" s="3">
+        <v>24</v>
+      </c>
+      <c r="D71" s="3">
+        <v>66</v>
+      </c>
+      <c r="E71" s="3">
+        <v>24</v>
+      </c>
+      <c r="F71" s="4">
+        <v>64</v>
+      </c>
+      <c r="G71" s="4">
+        <v>96</v>
+      </c>
+      <c r="H71" s="3">
+        <v>78</v>
+      </c>
+      <c r="I71" s="3">
+        <v>16</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>190</v>
+      </c>
+      <c r="B73" s="3">
+        <v>66</v>
+      </c>
+      <c r="C73" s="3">
+        <v>24</v>
+      </c>
+      <c r="D73" s="3">
+        <v>66</v>
+      </c>
+      <c r="E73" s="3">
+        <v>24</v>
+      </c>
+      <c r="F73" s="4">
+        <v>64</v>
+      </c>
+      <c r="G73" s="4">
+        <v>106</v>
+      </c>
+      <c r="H73" s="3">
+        <v>78</v>
+      </c>
+      <c r="I73" s="3">
+        <v>16</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>199</v>
+      </c>
+      <c r="B75" s="3">
+        <v>66</v>
+      </c>
+      <c r="C75" s="3">
+        <v>24</v>
+      </c>
+      <c r="D75" s="3">
+        <v>66</v>
+      </c>
+      <c r="E75" s="3">
+        <v>24</v>
+      </c>
+      <c r="F75" s="4">
+        <v>64</v>
+      </c>
+      <c r="G75" s="4">
+        <v>115</v>
+      </c>
+      <c r="H75" s="3">
+        <v>78</v>
+      </c>
+      <c r="I75" s="3">
+        <v>16</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>200</v>
+      </c>
+      <c r="B76" s="3">
+        <v>64</v>
+      </c>
+      <c r="C76" s="3">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3">
+        <v>64</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16</v>
+      </c>
+      <c r="F76" s="4">
+        <v>79</v>
+      </c>
+      <c r="G76" s="4">
+        <v>77</v>
+      </c>
+      <c r="H76" s="3">
+        <v>90</v>
+      </c>
+      <c r="I76" s="3">
+        <v>11</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>201</v>
+      </c>
+      <c r="B77" s="4">
+        <v>64</v>
+      </c>
+      <c r="C77" s="4">
+        <v>17</v>
+      </c>
+      <c r="D77" s="3">
+        <v>64</v>
+      </c>
+      <c r="E77" s="3">
+        <v>16</v>
+      </c>
+      <c r="F77" s="3">
+        <v>79</v>
+      </c>
+      <c r="G77" s="3">
+        <v>77</v>
+      </c>
+      <c r="H77" s="3">
+        <v>90</v>
+      </c>
+      <c r="I77" s="3">
+        <v>11</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
